--- a/Resultados/histórico-conflitos-atualizado.xlsx
+++ b/Resultados/histórico-conflitos-atualizado.xlsx
@@ -686,13 +686,13 @@
         <v>31</v>
       </c>
       <c r="M2" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="N2" t="n">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="O2" t="n">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
@@ -833,16 +833,16 @@
         <v>7</v>
       </c>
       <c r="O3" t="n">
-        <v>78</v>
+        <v>26</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>ESTABILIZADO</t>
+          <t>DESCENDENTE</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>ESTABILIZADO</t>
+          <t>DESCENDENTE</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -974,26 +974,26 @@
         <v>3</v>
       </c>
       <c r="O4" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>EMERGENTE</t>
+          <t>PERMANENTE</t>
         </is>
       </c>
       <c r="T4" t="n">
@@ -1109,27 +1109,27 @@
         <v>4</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5" t="n">
+        <v>3</v>
+      </c>
+      <c r="O5" t="n">
         <v>4</v>
       </c>
-      <c r="O5" t="n">
-        <v>12</v>
-      </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
@@ -1256,21 +1256,21 @@
         <v>3</v>
       </c>
       <c r="O6" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>ESTABILIZADO</t>
+          <t>DESCENDENTE</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
@@ -1391,13 +1391,13 @@
         <v>44</v>
       </c>
       <c r="M7" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="N7" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="O7" t="n">
-        <v>159</v>
+        <v>53</v>
       </c>
       <c r="P7" t="inlineStr">
         <is>
@@ -1532,13 +1532,13 @@
         <v>79</v>
       </c>
       <c r="M8" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="N8" t="n">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="O8" t="n">
-        <v>255</v>
+        <v>85</v>
       </c>
       <c r="P8" t="inlineStr">
         <is>
@@ -1673,13 +1673,13 @@
         <v>25</v>
       </c>
       <c r="M9" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="N9" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="O9" t="n">
-        <v>81</v>
+        <v>27</v>
       </c>
       <c r="P9" t="inlineStr">
         <is>
@@ -1820,21 +1820,21 @@
         <v>2</v>
       </c>
       <c r="O10" t="n">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>ESTABILIZADO</t>
+          <t>DESCENDENTE</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
@@ -1955,17 +1955,17 @@
         <v>13</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N11" t="n">
+        <v>12</v>
+      </c>
+      <c r="O11" t="n">
         <v>13</v>
       </c>
-      <c r="O11" t="n">
-        <v>39</v>
-      </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
@@ -2096,13 +2096,13 @@
         <v>159</v>
       </c>
       <c r="M12" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="N12" t="n">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="O12" t="n">
-        <v>525</v>
+        <v>175</v>
       </c>
       <c r="P12" t="inlineStr">
         <is>
@@ -2243,21 +2243,21 @@
         <v>5</v>
       </c>
       <c r="O13" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>EMERGENTE</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
@@ -2378,13 +2378,13 @@
         <v>87</v>
       </c>
       <c r="M14" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="N14" t="n">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="O14" t="n">
-        <v>282</v>
+        <v>94</v>
       </c>
       <c r="P14" t="inlineStr">
         <is>
@@ -2519,13 +2519,13 @@
         <v>28</v>
       </c>
       <c r="M15" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="N15" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="O15" t="n">
-        <v>99</v>
+        <v>33</v>
       </c>
       <c r="P15" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>EMERGENTE</t>
+          <t>PERMANENTE</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
@@ -2660,13 +2660,13 @@
         <v>62</v>
       </c>
       <c r="M16" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="N16" t="n">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="O16" t="n">
-        <v>216</v>
+        <v>72</v>
       </c>
       <c r="P16" t="inlineStr">
         <is>
@@ -2675,7 +2675,7 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>EMERGENTE</t>
+          <t>PERMANENTE</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
@@ -2801,13 +2801,13 @@
         <v>28</v>
       </c>
       <c r="M17" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N17" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="O17" t="n">
-        <v>99</v>
+        <v>33</v>
       </c>
       <c r="P17" t="inlineStr">
         <is>
@@ -2821,7 +2821,7 @@
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>EMERGENTE</t>
+          <t>PERMANENTE</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
@@ -2942,22 +2942,22 @@
         <v>9</v>
       </c>
       <c r="M18" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="N18" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="O18" t="n">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
@@ -3083,13 +3083,13 @@
         <v>21</v>
       </c>
       <c r="M19" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N19" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="O19" t="n">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="P19" t="inlineStr">
         <is>
@@ -3108,7 +3108,7 @@
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>EMERGENTE</t>
+          <t>PERMANENTE</t>
         </is>
       </c>
       <c r="T19" t="n">
@@ -3224,13 +3224,13 @@
         <v>42</v>
       </c>
       <c r="M20" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="N20" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="O20" t="n">
-        <v>177</v>
+        <v>59</v>
       </c>
       <c r="P20" t="inlineStr">
         <is>
@@ -3365,13 +3365,13 @@
         <v>25</v>
       </c>
       <c r="M21" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="N21" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="O21" t="n">
-        <v>81</v>
+        <v>27</v>
       </c>
       <c r="P21" t="inlineStr">
         <is>
@@ -3506,13 +3506,13 @@
         <v>34</v>
       </c>
       <c r="M22" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="N22" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="O22" t="n">
-        <v>129</v>
+        <v>43</v>
       </c>
       <c r="P22" t="inlineStr">
         <is>
@@ -3647,13 +3647,13 @@
         <v>50</v>
       </c>
       <c r="M23" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="N23" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="O23" t="n">
-        <v>177</v>
+        <v>59</v>
       </c>
       <c r="P23" t="inlineStr">
         <is>
@@ -3794,26 +3794,26 @@
         <v>1</v>
       </c>
       <c r="O24" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>DESCENDENTE</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>ESTABILIZADO</t>
+          <t>PERMANENTE</t>
         </is>
       </c>
       <c r="T24" t="n">
@@ -3929,13 +3929,13 @@
         <v>28</v>
       </c>
       <c r="M25" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="N25" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="O25" t="n">
-        <v>96</v>
+        <v>32</v>
       </c>
       <c r="P25" t="inlineStr">
         <is>
@@ -4070,13 +4070,13 @@
         <v>25</v>
       </c>
       <c r="M26" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="N26" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="O26" t="n">
-        <v>84</v>
+        <v>28</v>
       </c>
       <c r="P26" t="inlineStr">
         <is>
@@ -4211,13 +4211,13 @@
         <v>25</v>
       </c>
       <c r="M27" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N27" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="O27" t="n">
-        <v>78</v>
+        <v>26</v>
       </c>
       <c r="P27" t="inlineStr">
         <is>
@@ -4236,7 +4236,7 @@
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>EMERGENTE</t>
+          <t>PERMANENTE</t>
         </is>
       </c>
       <c r="T27" t="n">
@@ -4358,16 +4358,16 @@
         <v>10</v>
       </c>
       <c r="O28" t="n">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>EMERGENTE</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
@@ -4499,21 +4499,21 @@
         <v>4</v>
       </c>
       <c r="O29" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
@@ -4634,13 +4634,13 @@
         <v>22</v>
       </c>
       <c r="M30" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="N30" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="O30" t="n">
-        <v>102</v>
+        <v>34</v>
       </c>
       <c r="P30" t="inlineStr">
         <is>
@@ -4775,13 +4775,13 @@
         <v>76</v>
       </c>
       <c r="M31" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="N31" t="n">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="O31" t="n">
-        <v>252</v>
+        <v>84</v>
       </c>
       <c r="P31" t="inlineStr">
         <is>
@@ -4916,13 +4916,13 @@
         <v>86</v>
       </c>
       <c r="M32" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="N32" t="n">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="O32" t="n">
-        <v>276</v>
+        <v>92</v>
       </c>
       <c r="P32" t="inlineStr">
         <is>
@@ -5063,21 +5063,21 @@
         <v>2</v>
       </c>
       <c r="O33" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="S33" t="inlineStr">
@@ -5204,26 +5204,26 @@
         <v>4</v>
       </c>
       <c r="O34" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>EMERGENTE</t>
+          <t>PERMANENTE</t>
         </is>
       </c>
       <c r="T34" t="n">
@@ -5345,7 +5345,7 @@
         <v>18</v>
       </c>
       <c r="O35" t="n">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="P35" t="inlineStr">
         <is>
@@ -5359,7 +5359,7 @@
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>EMERGENTE</t>
+          <t>PERMANENTE</t>
         </is>
       </c>
       <c r="S35" t="inlineStr">
@@ -5486,11 +5486,11 @@
         <v>14</v>
       </c>
       <c r="O36" t="n">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr">
@@ -5627,7 +5627,7 @@
         <v>36</v>
       </c>
       <c r="O37" t="n">
-        <v>108</v>
+        <v>36</v>
       </c>
       <c r="P37" t="inlineStr">
         <is>
@@ -5768,26 +5768,26 @@
         <v>1</v>
       </c>
       <c r="O38" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>EMERGENTE</t>
         </is>
       </c>
       <c r="T38" t="n">
@@ -5909,16 +5909,16 @@
         <v>8</v>
       </c>
       <c r="O39" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
@@ -6050,21 +6050,21 @@
         <v>4</v>
       </c>
       <c r="O40" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="S40" t="inlineStr">
@@ -6185,17 +6185,17 @@
         <v>12</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N41" t="n">
+        <v>10</v>
+      </c>
+      <c r="O41" t="n">
         <v>12</v>
       </c>
-      <c r="O41" t="n">
-        <v>36</v>
-      </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="Q41" t="inlineStr">
@@ -6326,13 +6326,13 @@
         <v>97</v>
       </c>
       <c r="M42" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="N42" t="n">
-        <v>97</v>
+        <v>69</v>
       </c>
       <c r="O42" t="n">
-        <v>297</v>
+        <v>99</v>
       </c>
       <c r="P42" t="inlineStr">
         <is>
@@ -6467,22 +6467,22 @@
         <v>10</v>
       </c>
       <c r="M43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N43" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O43" t="n">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>EMERGENTE</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
@@ -6614,16 +6614,16 @@
         <v>8</v>
       </c>
       <c r="O44" t="n">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
@@ -6755,21 +6755,21 @@
         <v>3</v>
       </c>
       <c r="O45" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="S45" t="inlineStr">
@@ -6890,13 +6890,13 @@
         <v>185</v>
       </c>
       <c r="M46" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="N46" t="n">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="O46" t="n">
-        <v>612</v>
+        <v>204</v>
       </c>
       <c r="P46" t="inlineStr">
         <is>
@@ -7031,22 +7031,22 @@
         <v>7</v>
       </c>
       <c r="M47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N47" t="n">
+        <v>6</v>
+      </c>
+      <c r="O47" t="n">
         <v>7</v>
       </c>
-      <c r="O47" t="n">
-        <v>21</v>
-      </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
@@ -7178,21 +7178,21 @@
         <v>3</v>
       </c>
       <c r="O48" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="S48" t="inlineStr">
@@ -7319,16 +7319,16 @@
         <v>10</v>
       </c>
       <c r="O49" t="n">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>EMERGENTE</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
@@ -7460,7 +7460,7 @@
         <v>23</v>
       </c>
       <c r="O50" t="n">
-        <v>81</v>
+        <v>27</v>
       </c>
       <c r="P50" t="inlineStr">
         <is>
@@ -7601,26 +7601,26 @@
         <v>5</v>
       </c>
       <c r="O51" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>EMERGENTE</t>
         </is>
       </c>
       <c r="S51" t="inlineStr">
         <is>
-          <t>EMERGENTE</t>
+          <t>PERMANENTE</t>
         </is>
       </c>
       <c r="T51" t="n">
@@ -7742,26 +7742,26 @@
         <v>1</v>
       </c>
       <c r="O52" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>PERMANENTE</t>
         </is>
       </c>
       <c r="T52" t="n">
@@ -7877,17 +7877,17 @@
         <v>11</v>
       </c>
       <c r="M53" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N53" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O53" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="Q53" t="inlineStr">
@@ -8024,26 +8024,26 @@
         <v>1</v>
       </c>
       <c r="O54" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>EMERGENTE</t>
         </is>
       </c>
       <c r="T54" t="n">
@@ -8165,7 +8165,7 @@
         <v>20</v>
       </c>
       <c r="O55" t="n">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="P55" t="inlineStr">
         <is>
@@ -8306,21 +8306,21 @@
         <v>2</v>
       </c>
       <c r="O56" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="P56" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="S56" t="inlineStr">
@@ -8447,7 +8447,7 @@
         <v>25</v>
       </c>
       <c r="O57" t="n">
-        <v>81</v>
+        <v>27</v>
       </c>
       <c r="P57" t="inlineStr">
         <is>
@@ -8582,13 +8582,13 @@
         <v>82</v>
       </c>
       <c r="M58" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="N58" t="n">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="O58" t="n">
-        <v>267</v>
+        <v>89</v>
       </c>
       <c r="P58" t="inlineStr">
         <is>
@@ -8723,13 +8723,13 @@
         <v>24</v>
       </c>
       <c r="M59" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="N59" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="O59" t="n">
-        <v>78</v>
+        <v>26</v>
       </c>
       <c r="P59" t="inlineStr">
         <is>
@@ -8870,26 +8870,26 @@
         <v>1</v>
       </c>
       <c r="O60" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P60" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="R60" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="S60" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>EMERGENTE</t>
         </is>
       </c>
       <c r="T60" t="n">
@@ -9011,26 +9011,26 @@
         <v>1</v>
       </c>
       <c r="O61" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P61" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="S61" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>EMERGENTE</t>
         </is>
       </c>
       <c r="T61" t="n">
@@ -9152,26 +9152,26 @@
         <v>1</v>
       </c>
       <c r="O62" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P62" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="S62" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>EMERGENTE</t>
         </is>
       </c>
       <c r="T62" t="n">
@@ -9293,16 +9293,16 @@
         <v>6</v>
       </c>
       <c r="O63" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="P63" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="R63" t="inlineStr">
@@ -9434,7 +9434,7 @@
         <v>22</v>
       </c>
       <c r="O64" t="n">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="P64" t="inlineStr">
         <is>
@@ -9569,13 +9569,13 @@
         <v>41</v>
       </c>
       <c r="M65" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N65" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="O65" t="n">
-        <v>183</v>
+        <v>61</v>
       </c>
       <c r="P65" t="inlineStr">
         <is>
@@ -9716,11 +9716,11 @@
         <v>14</v>
       </c>
       <c r="O66" t="n">
-        <v>99</v>
+        <v>33</v>
       </c>
       <c r="P66" t="inlineStr">
         <is>
-          <t>ESTABILIZADO</t>
+          <t>DESCENDENTE</t>
         </is>
       </c>
       <c r="Q66" t="inlineStr">
@@ -9857,21 +9857,21 @@
         <v>2</v>
       </c>
       <c r="O67" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P67" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="R67" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="S67" t="inlineStr">
@@ -9998,26 +9998,26 @@
         <v>3</v>
       </c>
       <c r="O68" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="R68" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="S68" t="inlineStr">
         <is>
-          <t>EMERGENTE</t>
+          <t>PERMANENTE</t>
         </is>
       </c>
       <c r="T68" t="n">
@@ -10139,26 +10139,26 @@
         <v>4</v>
       </c>
       <c r="O69" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="P69" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="R69" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="S69" t="inlineStr">
         <is>
-          <t>EMERGENTE</t>
+          <t>PERMANENTE</t>
         </is>
       </c>
       <c r="T69" t="n">
@@ -10280,11 +10280,11 @@
         <v>12</v>
       </c>
       <c r="O70" t="n">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="P70" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="Q70" t="inlineStr">
@@ -10421,7 +10421,7 @@
         <v>24</v>
       </c>
       <c r="O71" t="n">
-        <v>78</v>
+        <v>26</v>
       </c>
       <c r="P71" t="inlineStr">
         <is>
@@ -10562,11 +10562,11 @@
         <v>15</v>
       </c>
       <c r="O72" t="n">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="P72" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>EMERGENTE</t>
         </is>
       </c>
       <c r="Q72" t="inlineStr">
@@ -10703,11 +10703,11 @@
         <v>11</v>
       </c>
       <c r="O73" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="P73" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="Q73" t="inlineStr">
@@ -10844,16 +10844,16 @@
         <v>6</v>
       </c>
       <c r="O74" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="P74" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="R74" t="inlineStr">
@@ -10979,13 +10979,13 @@
         <v>66</v>
       </c>
       <c r="M75" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N75" t="n">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="O75" t="n">
-        <v>213</v>
+        <v>71</v>
       </c>
       <c r="P75" t="inlineStr">
         <is>
@@ -10999,7 +10999,7 @@
       </c>
       <c r="R75" t="inlineStr">
         <is>
-          <t>EMERGENTE</t>
+          <t>PERMANENTE</t>
         </is>
       </c>
       <c r="S75" t="inlineStr">
@@ -11120,13 +11120,13 @@
         <v>16</v>
       </c>
       <c r="M76" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="N76" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="O76" t="n">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="P76" t="inlineStr">
         <is>
@@ -11267,16 +11267,16 @@
         <v>9</v>
       </c>
       <c r="O77" t="n">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="P77" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="R77" t="inlineStr">
@@ -11402,13 +11402,13 @@
         <v>17</v>
       </c>
       <c r="M78" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N78" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O78" t="n">
-        <v>108</v>
+        <v>36</v>
       </c>
       <c r="P78" t="inlineStr">
         <is>
@@ -11543,13 +11543,13 @@
         <v>61</v>
       </c>
       <c r="M79" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N79" t="n">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="O79" t="n">
-        <v>213</v>
+        <v>71</v>
       </c>
       <c r="P79" t="inlineStr">
         <is>
@@ -11558,7 +11558,7 @@
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>EMERGENTE</t>
+          <t>PERMANENTE</t>
         </is>
       </c>
       <c r="R79" t="inlineStr">
@@ -11690,21 +11690,21 @@
         <v>3</v>
       </c>
       <c r="O80" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="P80" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="R80" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="S80" t="inlineStr">
@@ -11831,21 +11831,21 @@
         <v>3</v>
       </c>
       <c r="O81" t="n">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="P81" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="R81" t="inlineStr">
         <is>
-          <t>ESTABILIZADO</t>
+          <t>DESCENDENTE</t>
         </is>
       </c>
       <c r="S81" t="inlineStr">
@@ -11966,13 +11966,13 @@
         <v>67</v>
       </c>
       <c r="M82" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N82" t="n">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="O82" t="n">
-        <v>225</v>
+        <v>75</v>
       </c>
       <c r="P82" t="inlineStr">
         <is>
@@ -12107,13 +12107,13 @@
         <v>22</v>
       </c>
       <c r="M83" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N83" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O83" t="n">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="P83" t="inlineStr">
         <is>
@@ -12248,13 +12248,13 @@
         <v>37</v>
       </c>
       <c r="M84" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N84" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O84" t="n">
-        <v>126</v>
+        <v>42</v>
       </c>
       <c r="P84" t="inlineStr">
         <is>
@@ -12268,7 +12268,7 @@
       </c>
       <c r="R84" t="inlineStr">
         <is>
-          <t>EMERGENTE</t>
+          <t>PERMANENTE</t>
         </is>
       </c>
       <c r="S84" t="inlineStr">
@@ -12395,16 +12395,16 @@
         <v>7</v>
       </c>
       <c r="O85" t="n">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="P85" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="R85" t="inlineStr">
@@ -12536,16 +12536,16 @@
         <v>8</v>
       </c>
       <c r="O86" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="P86" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="R86" t="inlineStr">
@@ -12677,16 +12677,16 @@
         <v>6</v>
       </c>
       <c r="O87" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="P87" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="R87" t="inlineStr">
@@ -12696,7 +12696,7 @@
       </c>
       <c r="S87" t="inlineStr">
         <is>
-          <t>EMERGENTE</t>
+          <t>PERMANENTE</t>
         </is>
       </c>
       <c r="T87" t="n">
@@ -12812,13 +12812,13 @@
         <v>22</v>
       </c>
       <c r="M88" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N88" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O88" t="n">
-        <v>93</v>
+        <v>31</v>
       </c>
       <c r="P88" t="inlineStr">
         <is>
@@ -12959,16 +12959,16 @@
         <v>10</v>
       </c>
       <c r="O89" t="n">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="P89" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>ESTABILIZADO</t>
+          <t>PERMANENTE</t>
         </is>
       </c>
       <c r="R89" t="inlineStr">
@@ -13100,16 +13100,16 @@
         <v>6</v>
       </c>
       <c r="O90" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="P90" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="R90" t="inlineStr">
@@ -13119,7 +13119,7 @@
       </c>
       <c r="S90" t="inlineStr">
         <is>
-          <t>EMERGENTE</t>
+          <t>PERMANENTE</t>
         </is>
       </c>
       <c r="T90" t="n">
@@ -13241,26 +13241,26 @@
         <v>1</v>
       </c>
       <c r="O91" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P91" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="R91" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="S91" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>EMERGENTE</t>
         </is>
       </c>
       <c r="T91" t="n">
@@ -13382,7 +13382,7 @@
         <v>16</v>
       </c>
       <c r="O92" t="n">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="P92" t="inlineStr">
         <is>
@@ -13401,7 +13401,7 @@
       </c>
       <c r="S92" t="inlineStr">
         <is>
-          <t>EMERGENTE</t>
+          <t>PERMANENTE</t>
         </is>
       </c>
       <c r="T92" t="n">
@@ -13517,13 +13517,13 @@
         <v>31</v>
       </c>
       <c r="M93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N93" t="n">
+        <v>29</v>
+      </c>
+      <c r="O93" t="n">
         <v>31</v>
-      </c>
-      <c r="O93" t="n">
-        <v>93</v>
       </c>
       <c r="P93" t="inlineStr">
         <is>
@@ -13664,7 +13664,7 @@
         <v>17</v>
       </c>
       <c r="O94" t="n">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="P94" t="inlineStr">
         <is>
@@ -13799,13 +13799,13 @@
         <v>47</v>
       </c>
       <c r="M95" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="N95" t="n">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="O95" t="n">
-        <v>183</v>
+        <v>61</v>
       </c>
       <c r="P95" t="inlineStr">
         <is>
@@ -13940,22 +13940,22 @@
         <v>10</v>
       </c>
       <c r="M96" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N96" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O96" t="n">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="P96" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>ESTABILIZADO</t>
+          <t>PERMANENTE</t>
         </is>
       </c>
       <c r="R96" t="inlineStr">
@@ -14081,13 +14081,13 @@
         <v>43</v>
       </c>
       <c r="M97" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="N97" t="n">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="O97" t="n">
-        <v>198</v>
+        <v>66</v>
       </c>
       <c r="P97" t="inlineStr">
         <is>
@@ -14222,13 +14222,13 @@
         <v>37</v>
       </c>
       <c r="M98" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N98" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O98" t="n">
-        <v>279</v>
+        <v>93</v>
       </c>
       <c r="P98" t="inlineStr">
         <is>
@@ -14369,11 +14369,11 @@
         <v>12</v>
       </c>
       <c r="O99" t="n">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="P99" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="Q99" t="inlineStr">
@@ -14510,21 +14510,21 @@
         <v>4</v>
       </c>
       <c r="O100" t="n">
-        <v>276</v>
+        <v>92</v>
       </c>
       <c r="P100" t="inlineStr">
         <is>
-          <t>ESTABILIZADO</t>
+          <t>DESCENDENTE</t>
         </is>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
-          <t>ESTABILIZADO</t>
+          <t>DESCENDENTE</t>
         </is>
       </c>
       <c r="R100" t="inlineStr">
         <is>
-          <t>ESTABILIZADO</t>
+          <t>DESCENDENTE</t>
         </is>
       </c>
       <c r="S100" t="inlineStr">
@@ -14651,11 +14651,11 @@
         <v>15</v>
       </c>
       <c r="O101" t="n">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="P101" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>EMERGENTE</t>
         </is>
       </c>
       <c r="Q101" t="inlineStr">
@@ -14792,21 +14792,21 @@
         <v>2</v>
       </c>
       <c r="O102" t="n">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="P102" t="inlineStr">
         <is>
-          <t>ESTABILIZADO</t>
+          <t>DESCENDENTE</t>
         </is>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
-          <t>ESTABILIZADO</t>
+          <t>DESCENDENTE</t>
         </is>
       </c>
       <c r="R102" t="inlineStr">
         <is>
-          <t>ESTABILIZADO</t>
+          <t>DESCENDENTE</t>
         </is>
       </c>
       <c r="S102" t="inlineStr">
@@ -14927,13 +14927,13 @@
         <v>17</v>
       </c>
       <c r="M103" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="N103" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="O103" t="n">
-        <v>111</v>
+        <v>37</v>
       </c>
       <c r="P103" t="inlineStr">
         <is>
@@ -15068,27 +15068,27 @@
         <v>2</v>
       </c>
       <c r="M104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N104" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O104" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P104" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="R104" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="S104" t="inlineStr">
@@ -15209,27 +15209,27 @@
         <v>2</v>
       </c>
       <c r="M105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N105" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O105" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P105" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="R105" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="S105" t="inlineStr">
@@ -15350,17 +15350,17 @@
         <v>12</v>
       </c>
       <c r="M106" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N106" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O106" t="n">
-        <v>87</v>
+        <v>29</v>
       </c>
       <c r="P106" t="inlineStr">
         <is>
-          <t>ESTABILIZADO</t>
+          <t>DESCENDENTE</t>
         </is>
       </c>
       <c r="Q106" t="inlineStr">
@@ -15497,21 +15497,21 @@
         <v>3</v>
       </c>
       <c r="O107" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="P107" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="R107" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="S107" t="inlineStr">
@@ -15638,21 +15638,21 @@
         <v>4</v>
       </c>
       <c r="O108" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="P108" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="R108" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="S108" t="inlineStr">
@@ -15773,27 +15773,27 @@
         <v>2</v>
       </c>
       <c r="M109" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N109" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O109" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="P109" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="Q109" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="R109" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="S109" t="inlineStr">
@@ -15920,21 +15920,21 @@
         <v>3</v>
       </c>
       <c r="O110" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="P110" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="R110" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="S110" t="inlineStr">
@@ -16061,26 +16061,26 @@
         <v>4</v>
       </c>
       <c r="O111" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="P111" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="Q111" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="R111" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="S111" t="inlineStr">
         <is>
-          <t>EMERGENTE</t>
+          <t>PERMANENTE</t>
         </is>
       </c>
       <c r="T111" t="n">
@@ -16202,26 +16202,26 @@
         <v>1</v>
       </c>
       <c r="O112" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P112" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="R112" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="S112" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>EMERGENTE</t>
         </is>
       </c>
       <c r="T112" t="n">
@@ -16343,21 +16343,21 @@
         <v>3</v>
       </c>
       <c r="O113" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="P113" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="R113" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>DESCENDENTE</t>
         </is>
       </c>
       <c r="S113" t="inlineStr">
@@ -16484,26 +16484,26 @@
         <v>1</v>
       </c>
       <c r="O114" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P114" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="R114" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="S114" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>EMERGENTE</t>
         </is>
       </c>
       <c r="T114" t="n">
@@ -16619,13 +16619,13 @@
         <v>65</v>
       </c>
       <c r="M115" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N115" t="n">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="O115" t="n">
-        <v>198</v>
+        <v>66</v>
       </c>
       <c r="P115" t="inlineStr">
         <is>
@@ -16644,7 +16644,7 @@
       </c>
       <c r="S115" t="inlineStr">
         <is>
-          <t>EMERGENTE</t>
+          <t>PERMANENTE</t>
         </is>
       </c>
       <c r="T115" t="n">
@@ -16760,27 +16760,27 @@
         <v>2</v>
       </c>
       <c r="M116" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N116" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O116" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="P116" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="R116" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="S116" t="inlineStr">
@@ -16907,21 +16907,21 @@
         <v>4</v>
       </c>
       <c r="O117" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="P117" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="R117" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="S117" t="inlineStr">
@@ -17048,26 +17048,26 @@
         <v>1</v>
       </c>
       <c r="O118" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="P118" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="R118" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>DESCENDENTE</t>
         </is>
       </c>
       <c r="S118" t="inlineStr">
         <is>
-          <t>ESTABILIZADO</t>
+          <t>PERMANENTE</t>
         </is>
       </c>
       <c r="T118" t="n">
@@ -17189,21 +17189,21 @@
         <v>2</v>
       </c>
       <c r="O119" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="P119" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="R119" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="S119" t="inlineStr">
@@ -17324,32 +17324,32 @@
         <v>1</v>
       </c>
       <c r="M120" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O120" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="P120" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="R120" t="inlineStr">
         <is>
-          <t>ESTABILIZADO</t>
+          <t>DESCENDENTE</t>
         </is>
       </c>
       <c r="S120" t="inlineStr">
         <is>
-          <t>ESTABILIZADO</t>
+          <t>PERMANENTE</t>
         </is>
       </c>
       <c r="T120" t="n">
@@ -17465,22 +17465,22 @@
         <v>7</v>
       </c>
       <c r="M121" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N121" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O121" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="P121" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="Q121" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="R121" t="inlineStr">
@@ -17612,21 +17612,21 @@
         <v>2</v>
       </c>
       <c r="O122" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P122" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="Q122" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="R122" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="S122" t="inlineStr">
@@ -17753,26 +17753,26 @@
         <v>1</v>
       </c>
       <c r="O123" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P123" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="Q123" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="R123" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="S123" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>PERMANENTE</t>
         </is>
       </c>
       <c r="T123" t="n">
@@ -17894,21 +17894,21 @@
         <v>2</v>
       </c>
       <c r="O124" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="P124" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="Q124" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="R124" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="S124" t="inlineStr">
@@ -18029,27 +18029,27 @@
         <v>2</v>
       </c>
       <c r="M125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N125" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O125" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P125" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="Q125" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="R125" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="S125" t="inlineStr">
@@ -18170,27 +18170,27 @@
         <v>2</v>
       </c>
       <c r="M126" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N126" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O126" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="P126" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="Q126" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="R126" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="S126" t="inlineStr">
@@ -18311,32 +18311,32 @@
         <v>1</v>
       </c>
       <c r="M127" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O127" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="P127" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="Q127" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="R127" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="S127" t="inlineStr">
         <is>
-          <t>ESTABILIZADO</t>
+          <t>PERMANENTE</t>
         </is>
       </c>
       <c r="T127" t="n">
@@ -18452,27 +18452,27 @@
         <v>2</v>
       </c>
       <c r="M128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N128" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O128" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P128" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="Q128" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="R128" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="S128" t="inlineStr">
@@ -18593,22 +18593,22 @@
         <v>8</v>
       </c>
       <c r="M129" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N129" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O129" t="n">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="P129" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="Q129" t="inlineStr">
         <is>
-          <t>ESTABILIZADO</t>
+          <t>DESCENDENTE</t>
         </is>
       </c>
       <c r="R129" t="inlineStr">
@@ -18734,27 +18734,27 @@
         <v>2</v>
       </c>
       <c r="M130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N130" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O130" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P130" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="Q130" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="R130" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="S130" t="inlineStr">
@@ -18881,21 +18881,21 @@
         <v>2</v>
       </c>
       <c r="O131" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="P131" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="Q131" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="R131" t="inlineStr">
         <is>
-          <t>ESTABILIZADO</t>
+          <t>DESCENDENTE</t>
         </is>
       </c>
       <c r="S131" t="inlineStr">
@@ -19016,17 +19016,17 @@
         <v>13</v>
       </c>
       <c r="M132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N132" t="n">
+        <v>12</v>
+      </c>
+      <c r="O132" t="n">
         <v>13</v>
       </c>
-      <c r="O132" t="n">
-        <v>39</v>
-      </c>
       <c r="P132" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="Q132" t="inlineStr">
@@ -19163,21 +19163,21 @@
         <v>2</v>
       </c>
       <c r="O133" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P133" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="Q133" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="R133" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="S133" t="inlineStr">
@@ -19298,22 +19298,22 @@
         <v>6</v>
       </c>
       <c r="M134" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N134" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O134" t="n">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="P134" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="Q134" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="R134" t="inlineStr">
@@ -19439,13 +19439,13 @@
         <v>36</v>
       </c>
       <c r="M135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N135" t="n">
+        <v>34</v>
+      </c>
+      <c r="O135" t="n">
         <v>36</v>
-      </c>
-      <c r="O135" t="n">
-        <v>108</v>
       </c>
       <c r="P135" t="inlineStr">
         <is>
@@ -19580,13 +19580,13 @@
         <v>18</v>
       </c>
       <c r="M136" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N136" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O136" t="n">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="P136" t="inlineStr">
         <is>
@@ -19727,21 +19727,21 @@
         <v>2</v>
       </c>
       <c r="O137" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="P137" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="Q137" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="R137" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="S137" t="inlineStr">
@@ -19868,21 +19868,21 @@
         <v>10</v>
       </c>
       <c r="O138" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="P138" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="Q138" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>EMERGENTE</t>
         </is>
       </c>
       <c r="R138" t="inlineStr">
         <is>
-          <t>EMERGENTE</t>
+          <t>PERMANENTE</t>
         </is>
       </c>
       <c r="S138" t="inlineStr">
@@ -20009,21 +20009,21 @@
         <v>2</v>
       </c>
       <c r="O139" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="P139" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="Q139" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="R139" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="S139" t="inlineStr">
@@ -20150,16 +20150,16 @@
         <v>7</v>
       </c>
       <c r="O140" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="P140" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="Q140" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="R140" t="inlineStr">
@@ -20291,21 +20291,21 @@
         <v>3</v>
       </c>
       <c r="O141" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="P141" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="Q141" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="R141" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="S141" t="inlineStr">
@@ -20432,21 +20432,21 @@
         <v>2</v>
       </c>
       <c r="O142" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P142" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="Q142" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="R142" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="S142" t="inlineStr">
@@ -20573,16 +20573,16 @@
         <v>7</v>
       </c>
       <c r="O143" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="P143" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="Q143" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="R143" t="inlineStr">
@@ -20714,21 +20714,21 @@
         <v>2</v>
       </c>
       <c r="O144" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="P144" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="Q144" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="R144" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="S144" t="inlineStr">
@@ -20855,21 +20855,21 @@
         <v>2</v>
       </c>
       <c r="O145" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="P145" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="Q145" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="R145" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="S145" t="inlineStr">
@@ -20996,21 +20996,21 @@
         <v>2</v>
       </c>
       <c r="O146" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="P146" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="Q146" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="R146" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="S146" t="inlineStr">
@@ -21137,16 +21137,16 @@
         <v>10</v>
       </c>
       <c r="O147" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="P147" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="Q147" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>EMERGENTE</t>
         </is>
       </c>
       <c r="R147" t="inlineStr">
@@ -21278,26 +21278,26 @@
         <v>2</v>
       </c>
       <c r="O148" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="P148" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="Q148" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="R148" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="S148" t="inlineStr">
         <is>
-          <t>EMERGENTE</t>
+          <t>PERMANENTE</t>
         </is>
       </c>
       <c r="T148" t="n">
@@ -21419,26 +21419,26 @@
         <v>1</v>
       </c>
       <c r="O149" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="P149" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="Q149" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="R149" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="S149" t="inlineStr">
         <is>
-          <t>ESTABILIZADO</t>
+          <t>PERMANENTE</t>
         </is>
       </c>
       <c r="T149" t="n">
@@ -21554,27 +21554,27 @@
         <v>2</v>
       </c>
       <c r="M150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N150" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O150" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P150" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="Q150" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="R150" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="S150" t="inlineStr">
@@ -21701,21 +21701,21 @@
         <v>2</v>
       </c>
       <c r="O151" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P151" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="Q151" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="R151" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="S151" t="inlineStr">
@@ -21842,21 +21842,21 @@
         <v>2</v>
       </c>
       <c r="O152" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P152" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="Q152" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="R152" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="S152" t="inlineStr">
@@ -21983,26 +21983,26 @@
         <v>3</v>
       </c>
       <c r="O153" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="P153" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="Q153" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="R153" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="S153" t="inlineStr">
         <is>
-          <t>EMERGENTE</t>
+          <t>PERMANENTE</t>
         </is>
       </c>
       <c r="T153" t="n">
@@ -22124,21 +22124,21 @@
         <v>2</v>
       </c>
       <c r="O154" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="P154" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="Q154" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="R154" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="S154" t="inlineStr">
@@ -22265,21 +22265,21 @@
         <v>3</v>
       </c>
       <c r="O155" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="P155" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="Q155" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="R155" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="S155" t="inlineStr">
@@ -22406,21 +22406,21 @@
         <v>2</v>
       </c>
       <c r="O156" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P156" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="Q156" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="R156" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="S156" t="inlineStr">
@@ -22547,16 +22547,16 @@
         <v>7</v>
       </c>
       <c r="O157" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="P157" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="Q157" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="R157" t="inlineStr">
@@ -22688,26 +22688,26 @@
         <v>1</v>
       </c>
       <c r="O158" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="P158" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="Q158" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="R158" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="S158" t="inlineStr">
         <is>
-          <t>ESTABILIZADO</t>
+          <t>PERMANENTE</t>
         </is>
       </c>
       <c r="T158" t="n">
@@ -22829,16 +22829,16 @@
         <v>6</v>
       </c>
       <c r="O159" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="P159" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="Q159" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="R159" t="inlineStr">
@@ -22848,7 +22848,7 @@
       </c>
       <c r="S159" t="inlineStr">
         <is>
-          <t>EMERGENTE</t>
+          <t>PERMANENTE</t>
         </is>
       </c>
       <c r="T159" t="n">
@@ -22970,21 +22970,21 @@
         <v>3</v>
       </c>
       <c r="O160" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="P160" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="Q160" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="R160" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="S160" t="inlineStr">
@@ -23105,32 +23105,32 @@
         <v>2</v>
       </c>
       <c r="M161" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N161" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O161" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="P161" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="Q161" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="R161" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="S161" t="inlineStr">
         <is>
-          <t>EMERGENTE</t>
+          <t>PERMANENTE</t>
         </is>
       </c>
       <c r="T161" t="n">
@@ -23246,27 +23246,27 @@
         <v>2</v>
       </c>
       <c r="M162" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N162" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O162" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="P162" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="Q162" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="R162" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="S162" t="inlineStr">
@@ -23393,21 +23393,21 @@
         <v>4</v>
       </c>
       <c r="O163" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="P163" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="Q163" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="R163" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="S163" t="inlineStr">
@@ -23534,26 +23534,26 @@
         <v>1</v>
       </c>
       <c r="O164" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P164" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="Q164" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="R164" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="S164" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>EMERGENTE</t>
         </is>
       </c>
       <c r="T164" t="n">
@@ -23675,26 +23675,26 @@
         <v>1</v>
       </c>
       <c r="O165" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P165" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="Q165" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="R165" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="S165" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>PERMANENTE</t>
         </is>
       </c>
       <c r="T165" t="n">
@@ -23816,21 +23816,21 @@
         <v>2</v>
       </c>
       <c r="O166" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P166" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="Q166" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="R166" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="S166" t="inlineStr">
@@ -23957,21 +23957,21 @@
         <v>3</v>
       </c>
       <c r="O167" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="P167" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="Q167" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="R167" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="S167" t="inlineStr">
@@ -24098,16 +24098,16 @@
         <v>6</v>
       </c>
       <c r="O168" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="P168" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="Q168" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="R168" t="inlineStr">
@@ -24239,26 +24239,26 @@
         <v>1</v>
       </c>
       <c r="O169" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P169" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="Q169" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="R169" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="S169" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>EMERGENTE</t>
         </is>
       </c>
       <c r="T169" t="n">
@@ -24380,26 +24380,26 @@
         <v>1</v>
       </c>
       <c r="O170" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="P170" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="Q170" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="R170" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>DESCENDENTE</t>
         </is>
       </c>
       <c r="S170" t="inlineStr">
         <is>
-          <t>ESTABILIZADO</t>
+          <t>PERMANENTE</t>
         </is>
       </c>
       <c r="T170" t="n">
@@ -24521,21 +24521,21 @@
         <v>2</v>
       </c>
       <c r="O171" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="P171" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="Q171" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="R171" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="S171" t="inlineStr">
@@ -24662,21 +24662,21 @@
         <v>2</v>
       </c>
       <c r="O172" t="n">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="P172" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="Q172" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="R172" t="inlineStr">
         <is>
-          <t>ESTABILIZADO</t>
+          <t>DESCENDENTE</t>
         </is>
       </c>
       <c r="S172" t="inlineStr">
@@ -24803,21 +24803,21 @@
         <v>2</v>
       </c>
       <c r="O173" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P173" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="Q173" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="R173" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="S173" t="inlineStr">
@@ -24944,26 +24944,26 @@
         <v>1</v>
       </c>
       <c r="O174" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="P174" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="Q174" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="R174" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="S174" t="inlineStr">
         <is>
-          <t>ESTABILIZADO</t>
+          <t>PERMANENTE</t>
         </is>
       </c>
       <c r="T174" t="n">
@@ -25085,21 +25085,21 @@
         <v>3</v>
       </c>
       <c r="O175" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="P175" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="Q175" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="R175" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="S175" t="inlineStr">
@@ -25226,16 +25226,16 @@
         <v>6</v>
       </c>
       <c r="O176" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="P176" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="Q176" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="R176" t="inlineStr">
@@ -25367,26 +25367,26 @@
         <v>1</v>
       </c>
       <c r="O177" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P177" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="Q177" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="R177" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="S177" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>PERMANENTE</t>
         </is>
       </c>
       <c r="T177" t="n">
@@ -25502,27 +25502,27 @@
         <v>5</v>
       </c>
       <c r="M178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N178" t="n">
+        <v>4</v>
+      </c>
+      <c r="O178" t="n">
         <v>5</v>
       </c>
-      <c r="O178" t="n">
-        <v>15</v>
-      </c>
       <c r="P178" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="Q178" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="R178" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>EMERGENTE</t>
         </is>
       </c>
       <c r="S178" t="inlineStr">
@@ -25643,13 +25643,13 @@
         <v>42</v>
       </c>
       <c r="M179" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="N179" t="n">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="O179" t="n">
-        <v>162</v>
+        <v>54</v>
       </c>
       <c r="P179" t="inlineStr">
         <is>
@@ -25790,21 +25790,21 @@
         <v>2</v>
       </c>
       <c r="O180" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="P180" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="Q180" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="R180" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>DESCENDENTE</t>
         </is>
       </c>
       <c r="S180" t="inlineStr">
@@ -25931,16 +25931,16 @@
         <v>10</v>
       </c>
       <c r="O181" t="n">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="P181" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="Q181" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>EMERGENTE</t>
         </is>
       </c>
       <c r="R181" t="inlineStr">
@@ -26066,13 +26066,13 @@
         <v>25</v>
       </c>
       <c r="M182" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="N182" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="O182" t="n">
-        <v>81</v>
+        <v>27</v>
       </c>
       <c r="P182" t="inlineStr">
         <is>
@@ -26207,17 +26207,17 @@
         <v>12</v>
       </c>
       <c r="M183" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N183" t="n">
+        <v>11</v>
+      </c>
+      <c r="O183" t="n">
         <v>12</v>
       </c>
-      <c r="O183" t="n">
-        <v>36</v>
-      </c>
       <c r="P183" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="Q183" t="inlineStr">
@@ -26354,26 +26354,26 @@
         <v>5</v>
       </c>
       <c r="O184" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="P184" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="Q184" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="R184" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>EMERGENTE</t>
         </is>
       </c>
       <c r="S184" t="inlineStr">
         <is>
-          <t>EMERGENTE</t>
+          <t>PERMANENTE</t>
         </is>
       </c>
       <c r="T184" t="n">
@@ -26495,21 +26495,21 @@
         <v>2</v>
       </c>
       <c r="O185" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="P185" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="Q185" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="R185" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="S185" t="inlineStr">
@@ -26630,13 +26630,13 @@
         <v>46</v>
       </c>
       <c r="M186" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="N186" t="n">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="O186" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="P186" t="inlineStr">
         <is>
@@ -26777,16 +26777,16 @@
         <v>6</v>
       </c>
       <c r="O187" t="n">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="P187" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="Q187" t="inlineStr">
         <is>
-          <t>ESTABILIZADO</t>
+          <t>DESCENDENTE</t>
         </is>
       </c>
       <c r="R187" t="inlineStr">
@@ -26912,13 +26912,13 @@
         <v>21</v>
       </c>
       <c r="M188" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N188" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O188" t="n">
-        <v>81</v>
+        <v>27</v>
       </c>
       <c r="P188" t="inlineStr">
         <is>
@@ -27053,13 +27053,13 @@
         <v>32</v>
       </c>
       <c r="M189" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N189" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O189" t="n">
-        <v>108</v>
+        <v>36</v>
       </c>
       <c r="P189" t="inlineStr">
         <is>
@@ -27200,16 +27200,16 @@
         <v>8</v>
       </c>
       <c r="O190" t="n">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="P190" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="Q190" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="R190" t="inlineStr">
@@ -27341,7 +27341,7 @@
         <v>19</v>
       </c>
       <c r="O191" t="n">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="P191" t="inlineStr">
         <is>
@@ -27476,13 +27476,13 @@
         <v>99</v>
       </c>
       <c r="M192" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="N192" t="n">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="O192" t="n">
-        <v>345</v>
+        <v>115</v>
       </c>
       <c r="P192" t="inlineStr">
         <is>
@@ -27623,21 +27623,21 @@
         <v>2</v>
       </c>
       <c r="O193" t="n">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="P193" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="Q193" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="R193" t="inlineStr">
         <is>
-          <t>ESTABILIZADO</t>
+          <t>DESCENDENTE</t>
         </is>
       </c>
       <c r="S193" t="inlineStr">
@@ -27764,21 +27764,21 @@
         <v>2</v>
       </c>
       <c r="O194" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P194" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="Q194" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="R194" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="S194" t="inlineStr">
@@ -27899,13 +27899,13 @@
         <v>27</v>
       </c>
       <c r="M195" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N195" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="O195" t="n">
-        <v>129</v>
+        <v>43</v>
       </c>
       <c r="P195" t="inlineStr">
         <is>
@@ -28046,11 +28046,11 @@
         <v>11</v>
       </c>
       <c r="O196" t="n">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="P196" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="Q196" t="inlineStr">
@@ -28065,7 +28065,7 @@
       </c>
       <c r="S196" t="inlineStr">
         <is>
-          <t>EMERGENTE</t>
+          <t>PERMANENTE</t>
         </is>
       </c>
       <c r="T196" t="n">
@@ -28187,26 +28187,26 @@
         <v>1</v>
       </c>
       <c r="O197" t="n">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="P197" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="Q197" t="inlineStr">
         <is>
-          <t>ESTABILIZADO</t>
+          <t>DESCENDENTE</t>
         </is>
       </c>
       <c r="R197" t="inlineStr">
         <is>
-          <t>ESTABILIZADO</t>
+          <t>DESCENDENTE</t>
         </is>
       </c>
       <c r="S197" t="inlineStr">
         <is>
-          <t>ESTABILIZADO</t>
+          <t>PERMANENTE</t>
         </is>
       </c>
       <c r="T197" t="n">
@@ -28322,13 +28322,13 @@
         <v>19</v>
       </c>
       <c r="M198" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="N198" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O198" t="n">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="P198" t="inlineStr">
         <is>
@@ -28469,21 +28469,21 @@
         <v>3</v>
       </c>
       <c r="O199" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="P199" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="Q199" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="R199" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>DESCENDENTE</t>
         </is>
       </c>
       <c r="S199" t="inlineStr">
@@ -28604,27 +28604,27 @@
         <v>3</v>
       </c>
       <c r="M200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N200" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O200" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="P200" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="Q200" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="R200" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="S200" t="inlineStr">
@@ -28745,13 +28745,13 @@
         <v>16</v>
       </c>
       <c r="M201" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N201" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O201" t="n">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="P201" t="inlineStr">
         <is>
@@ -28892,21 +28892,21 @@
         <v>2</v>
       </c>
       <c r="O202" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P202" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="Q202" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="R202" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="S202" t="inlineStr">
@@ -29033,16 +29033,16 @@
         <v>7</v>
       </c>
       <c r="O203" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="P203" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="Q203" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="R203" t="inlineStr">
@@ -29052,7 +29052,7 @@
       </c>
       <c r="S203" t="inlineStr">
         <is>
-          <t>EMERGENTE</t>
+          <t>PERMANENTE</t>
         </is>
       </c>
       <c r="T203" t="n">
@@ -29174,21 +29174,21 @@
         <v>3</v>
       </c>
       <c r="O204" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="P204" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="Q204" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="R204" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="S204" t="inlineStr">
@@ -29315,7 +29315,7 @@
         <v>22</v>
       </c>
       <c r="O205" t="n">
-        <v>108</v>
+        <v>36</v>
       </c>
       <c r="P205" t="inlineStr">
         <is>
@@ -29456,26 +29456,26 @@
         <v>1</v>
       </c>
       <c r="O206" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="P206" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="Q206" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="R206" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="S206" t="inlineStr">
         <is>
-          <t>ESTABILIZADO</t>
+          <t>PERMANENTE</t>
         </is>
       </c>
       <c r="T206" t="n">
@@ -29597,16 +29597,16 @@
         <v>9</v>
       </c>
       <c r="O207" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="P207" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="Q207" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="R207" t="inlineStr">
@@ -29738,21 +29738,21 @@
         <v>4</v>
       </c>
       <c r="O208" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="P208" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="Q208" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="R208" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="S208" t="inlineStr">
@@ -29879,21 +29879,21 @@
         <v>2</v>
       </c>
       <c r="O209" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="P209" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="Q209" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="R209" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="S209" t="inlineStr">
@@ -30014,13 +30014,13 @@
         <v>23</v>
       </c>
       <c r="M210" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N210" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O210" t="n">
-        <v>87</v>
+        <v>29</v>
       </c>
       <c r="P210" t="inlineStr">
         <is>
@@ -30155,13 +30155,13 @@
         <v>21</v>
       </c>
       <c r="M211" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="N211" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="O211" t="n">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="P211" t="inlineStr">
         <is>
@@ -30296,17 +30296,17 @@
         <v>15</v>
       </c>
       <c r="M212" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N212" t="n">
+        <v>14</v>
+      </c>
+      <c r="O212" t="n">
         <v>15</v>
       </c>
-      <c r="O212" t="n">
-        <v>45</v>
-      </c>
       <c r="P212" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>EMERGENTE</t>
         </is>
       </c>
       <c r="Q212" t="inlineStr">
@@ -30437,17 +30437,17 @@
         <v>19</v>
       </c>
       <c r="M213" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N213" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="O213" t="n">
-        <v>102</v>
+        <v>34</v>
       </c>
       <c r="P213" t="inlineStr">
         <is>
-          <t>EMERGENTE</t>
+          <t>PERMANENTE</t>
         </is>
       </c>
       <c r="Q213" t="inlineStr">
@@ -30584,21 +30584,21 @@
         <v>3</v>
       </c>
       <c r="O214" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="P214" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="Q214" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="R214" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="S214" t="inlineStr">
@@ -30725,7 +30725,7 @@
         <v>16</v>
       </c>
       <c r="O215" t="n">
-        <v>114</v>
+        <v>38</v>
       </c>
       <c r="P215" t="inlineStr">
         <is>
@@ -30860,13 +30860,13 @@
         <v>17</v>
       </c>
       <c r="M216" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N216" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O216" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="P216" t="inlineStr">
         <is>
@@ -31007,26 +31007,26 @@
         <v>1</v>
       </c>
       <c r="O217" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P217" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="Q217" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="R217" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="S217" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>PERMANENTE</t>
         </is>
       </c>
       <c r="T217" t="n">
@@ -31142,22 +31142,22 @@
         <v>9</v>
       </c>
       <c r="M218" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N218" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O218" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="P218" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="Q218" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="R218" t="inlineStr">
@@ -31167,7 +31167,7 @@
       </c>
       <c r="S218" t="inlineStr">
         <is>
-          <t>EMERGENTE</t>
+          <t>PERMANENTE</t>
         </is>
       </c>
       <c r="T218" t="n">
@@ -31289,16 +31289,16 @@
         <v>7</v>
       </c>
       <c r="O219" t="n">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="P219" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="Q219" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="R219" t="inlineStr">
@@ -31424,22 +31424,22 @@
         <v>10</v>
       </c>
       <c r="M220" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N220" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O220" t="n">
-        <v>78</v>
+        <v>26</v>
       </c>
       <c r="P220" t="inlineStr">
         <is>
-          <t>ESTABILIZADO</t>
+          <t>DESCENDENTE</t>
         </is>
       </c>
       <c r="Q220" t="inlineStr">
         <is>
-          <t>ESTABILIZADO</t>
+          <t>PERMANENTE</t>
         </is>
       </c>
       <c r="R220" t="inlineStr">
@@ -31571,21 +31571,21 @@
         <v>3</v>
       </c>
       <c r="O221" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="P221" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="Q221" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="R221" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="S221" t="inlineStr">
@@ -31712,16 +31712,16 @@
         <v>6</v>
       </c>
       <c r="O222" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="P222" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="Q222" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="R222" t="inlineStr">
@@ -31731,7 +31731,7 @@
       </c>
       <c r="S222" t="inlineStr">
         <is>
-          <t>EMERGENTE</t>
+          <t>PERMANENTE</t>
         </is>
       </c>
       <c r="T222" t="n">
@@ -31853,16 +31853,16 @@
         <v>9</v>
       </c>
       <c r="O223" t="n">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="P223" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="Q223" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="R223" t="inlineStr">
@@ -31988,13 +31988,13 @@
         <v>19</v>
       </c>
       <c r="M224" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N224" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="O224" t="n">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="P224" t="inlineStr">
         <is>
@@ -32135,16 +32135,16 @@
         <v>7</v>
       </c>
       <c r="O225" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="P225" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="Q225" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="R225" t="inlineStr">
@@ -32276,21 +32276,21 @@
         <v>3</v>
       </c>
       <c r="O226" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="P226" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="Q226" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="R226" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="S226" t="inlineStr">
@@ -32417,7 +32417,7 @@
         <v>28</v>
       </c>
       <c r="O227" t="n">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="P227" t="inlineStr">
         <is>
@@ -32552,13 +32552,13 @@
         <v>21</v>
       </c>
       <c r="M228" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="N228" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O228" t="n">
-        <v>99</v>
+        <v>33</v>
       </c>
       <c r="P228" t="inlineStr">
         <is>
@@ -32699,7 +32699,7 @@
         <v>19</v>
       </c>
       <c r="O229" t="n">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="P229" t="inlineStr">
         <is>
@@ -32834,13 +32834,13 @@
         <v>57</v>
       </c>
       <c r="M230" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="N230" t="n">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="O230" t="n">
-        <v>201</v>
+        <v>67</v>
       </c>
       <c r="P230" t="inlineStr">
         <is>
@@ -32849,7 +32849,7 @@
       </c>
       <c r="Q230" t="inlineStr">
         <is>
-          <t>EMERGENTE</t>
+          <t>PERMANENTE</t>
         </is>
       </c>
       <c r="R230" t="inlineStr">
@@ -32975,13 +32975,13 @@
         <v>21</v>
       </c>
       <c r="M231" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N231" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="O231" t="n">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="P231" t="inlineStr">
         <is>
@@ -33122,16 +33122,16 @@
         <v>9</v>
       </c>
       <c r="O232" t="n">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="P232" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="Q232" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="R232" t="inlineStr">
@@ -33263,16 +33263,16 @@
         <v>10</v>
       </c>
       <c r="O233" t="n">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="P233" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="Q233" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>EMERGENTE</t>
         </is>
       </c>
       <c r="R233" t="inlineStr">
@@ -33404,26 +33404,26 @@
         <v>2</v>
       </c>
       <c r="O234" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="P234" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="Q234" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="R234" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="S234" t="inlineStr">
         <is>
-          <t>EMERGENTE</t>
+          <t>PERMANENTE</t>
         </is>
       </c>
       <c r="T234" t="n">
@@ -33545,26 +33545,26 @@
         <v>1</v>
       </c>
       <c r="O235" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="P235" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="Q235" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="R235" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="S235" t="inlineStr">
         <is>
-          <t>ESTABILIZADO</t>
+          <t>PERMANENTE</t>
         </is>
       </c>
       <c r="T235" t="n">
@@ -33686,26 +33686,26 @@
         <v>2</v>
       </c>
       <c r="O236" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="P236" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="Q236" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="R236" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="S236" t="inlineStr">
         <is>
-          <t>EMERGENTE</t>
+          <t>PERMANENTE</t>
         </is>
       </c>
       <c r="T236" t="n">
@@ -33827,16 +33827,16 @@
         <v>6</v>
       </c>
       <c r="O237" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="P237" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="Q237" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="R237" t="inlineStr">
@@ -33968,11 +33968,11 @@
         <v>12</v>
       </c>
       <c r="O238" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="P238" t="inlineStr">
         <is>
-          <t>POUCOS CONFLITOS</t>
+          <t>INTERMITENTE</t>
         </is>
       </c>
       <c r="Q238" t="inlineStr">
